--- a/reports_pdf/brasil/risk-pt/Cases/08-07-2020_brasil_report.xlsx
+++ b/reports_pdf/brasil/risk-pt/Cases/08-07-2020_brasil_report.xlsx
@@ -1171,28 +1171,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19284</v>
+        <v>20154</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>870</v>
       </c>
       <c r="E24" t="n">
-        <v>0.09292035398230089</v>
+        <v>0.3335176991150443</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8209926843314472</v>
+        <v>0.8553637336361249</v>
       </c>
       <c r="G24" t="n">
-        <v>7412</v>
+        <v>8282</v>
       </c>
       <c r="H24" t="n">
-        <v>1464.822134387352</v>
+        <v>1636.758893280632</v>
       </c>
       <c r="I24" t="n">
-        <v>6085.197776264687</v>
+        <v>7084.122441974387</v>
       </c>
       <c r="J24" t="n">
-        <v>1202.608256178792</v>
+        <v>1400.024198018654</v>
       </c>
     </row>
     <row r="25">
@@ -1341,28 +1341,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1719285</v>
+        <v>1720155</v>
       </c>
       <c r="D29" t="n">
-        <v>42531</v>
+        <v>43401</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8460146276793827</v>
+        <v>0.8524943023550265</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9986235963314949</v>
+        <v>0.9995492641423012</v>
       </c>
       <c r="G29" t="n">
-        <v>523997</v>
+        <v>524867</v>
       </c>
       <c r="H29" t="n">
-        <v>256.2971694652456</v>
+        <v>256.722703461499</v>
       </c>
       <c r="I29" t="n">
-        <v>523275.7686069143</v>
+        <v>524630.4236225772</v>
       </c>
       <c r="J29" t="n">
-        <v>255.9444011009662</v>
+        <v>256.6069893335635</v>
       </c>
     </row>
   </sheetData>
